--- a/biology/Botanique/Parc_Alexandria/Parc_Alexandria.xlsx
+++ b/biology/Botanique/Parc_Alexandria/Parc_Alexandria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Alexandria, ou parfois Alexandrie en français, est un parc de 115 ha situé dans le site de Peterhof, près de Saint-Pétersbourg en Russie. Il se trouve dans la partie orientale du parc inférieur de Peterhof, dont il est séparé par un mur de pierres.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc se trouve à l'emplacement d'anciennes parcelles de terrain ayant appartenu à des favoris de Pierre le Grand qui leur en avait fait don, puis elles furent achetées et réunies par le prince Menchikov en 1726 qui y fait bâtir une demeure de plaisance baptisée Mon Courage[1]. Lorsqu'il perdit la faveur de la cour, le domaine passa aux princes Dolgorouki, ses opposants politiques.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc se trouve à l'emplacement d'anciennes parcelles de terrain ayant appartenu à des favoris de Pierre le Grand qui leur en avait fait don, puis elles furent achetées et réunies par le prince Menchikov en 1726 qui y fait bâtir une demeure de plaisance baptisée Mon Courage. Lorsqu'il perdit la faveur de la cour, le domaine passa aux princes Dolgorouki, ses opposants politiques.
 L'impératrice Anne en fait l'acquisition en 1733 pour constituer un domaine de chasse, dénommé en allemand le Jagdgarten. On y chasse le cerf, le sanglier, le lièvre, etc. et l'on construit dans la partie basse un petit pavillon de bois, intitulé le Temple, d'où l'impératrice pouvait tirer sur les bêtes, rabattues par ses gens et leurs meutes de chiens courants. Dans les années 1770, Tsarskoïe Selo est préféré à Peterhof, comme résidence impériale, et le domaine de chasse est délaissé. Il ne reste plus que quelques cerfs et une partie du territoire devient un terrain de manœuvre du régiment des dragons de la garde. La maison de plaisance de Menchikov est en ruines à la fin du siècle et le pavillon de bois détruit.
 Nicolas Ier, en accédant au trône, renomme le parc en Alexandria en hommage à son épouse Alexandra, née princesse de Prusse, et lui en fait don. De grands travaux commencent en 1826: construction d'un cottage d'été à l'anglaise par Adam Menelas, dessins d'allées, d'alignements d'arbres, aménagement d'un parc romantique, etc. Les travaux se poursuivent jusqu'en 1829. Le cottage, de style néogothique, se présente sous la forme d'un bâtiment de taille modeste à un étage, agrémenté de balcons et de terrasses. Alexandra fait mettre sur la façade son blason personnel (créé par le poète Vassili Joukovski), une épée nue passant à travers une couronne de roses blanches. Pour souligner encore le caractère idyllique de la résidence, l'architecte Menelas fait construire à côté entre 1829 et 1831, une ferme, avec une petite étable, des pièces d'habitation pour des vachers et bergers, des cuisines et des granges, etc. L'ensemble de la ferme est transformé en 1859 par Stackenschneider, architecte d'Alexandre II).
 Le parc est dessiné et aménagé pendant vingt ans de travaux par l'architecte paysagiste Peter Erler. Il est entouré de murs qui le séparent du parc inférieur de Peterhof, et l'on y accède par trois portails, la porte du gibier, la porte Saint-Nicolas et la porte maritime. De l'autre côté se trouve le domaine de Znamenka, autrefois propriété du grand-duc Pierre de Russie. La partie sud du parc longe la grand-route de Saint-Pétersbourg-Oranienbaum, et la partie nord longe les rives du golfe de la Baltique.
@@ -552,7 +566,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(ru) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en russe intitulé « Александрия (дворцово-парковый ансамбль) » (voir la liste des auteurs).</t>
         </is>
